--- a/data/590_P_label_case.xlsx
+++ b/data/590_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1158,118 +1158,6 @@
         <v>0.001112316269106688</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0.80485</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.0009882654131504415</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.8186399999999999</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.0008739105480871</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.8324299999999999</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.0007662631208040448</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.84621</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.0006594058832028834</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.0005503976879978193</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0.8739399999999999</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.0004454747448558457</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.8878799999999999</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.0003499572948475976</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.9018200000000001</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.0002650786435689859</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.91576</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.0001916495247847971</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.92979</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.0001285488520081839</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.9438200000000001</v>
-      </c>
-      <c r="B101" t="n">
-        <v>7.933225875433714e-05</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>0.95785</v>
-      </c>
-      <c r="B102" t="n">
-        <v>4.210487230656025e-05</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>0.97188</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.631485218496645e-05</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>0.9859399999999999</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3.201768434686963e-06</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
